--- a/Project List AI-6th Sem.xlsx
+++ b/Project List AI-6th Sem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="4455" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="4455" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="AI-A Project List" sheetId="3" r:id="rId1"/>
@@ -536,47 +536,56 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -588,11 +597,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -806,6 +817,174 @@
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -815,182 +994,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,1144 +1237,1144 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:C1"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="110.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="4"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="110.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="38" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="14">
         <v>2102901520001</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="19">
+    <row r="8" spans="1:5" ht="89.25">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="14">
         <v>2102901520003</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2102901520004</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="89.25">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2102901520006</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="89.25">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2102901520007</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2102901520008</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="114.75">
+      <c r="A13" s="13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2102901520009</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2102901520010</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2102901520011</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2102901520012</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2102901520013</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="13">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2102901520014</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="19">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20">
-        <v>2102901520004</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46" t="s">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="13">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2102901520015</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="89.25">
-      <c r="A10" s="19">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20">
-        <v>2102901520006</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46" t="s">
+    <row r="20" spans="1:5" ht="89.25">
+      <c r="A20" s="13">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2102901520016</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="89.25">
-      <c r="A11" s="19">
+    <row r="21" spans="1:5" ht="89.25">
+      <c r="A21" s="13">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2102901520017</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="102">
+      <c r="A22" s="13">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2102901520018</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="114.75">
+      <c r="A23" s="13">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2102901520019</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="13">
+        <v>18</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2102901520020</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="13">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2102901520021</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="13">
+        <v>20</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2102901520022</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="13">
+        <v>21</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2102901520023</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="13">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14">
+        <v>2102901520024</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="13">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2102901520025</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="89.25">
+      <c r="A30" s="13">
+        <v>24</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2102901520026</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="89.25">
+      <c r="A31" s="13">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2102901520027</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="102">
+      <c r="A32" s="13">
+        <v>26</v>
+      </c>
+      <c r="B32" s="14">
+        <v>2102901520028</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="114.75">
+      <c r="A33" s="13">
+        <v>27</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2102901520029</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="13">
+        <v>28</v>
+      </c>
+      <c r="B34" s="14">
+        <v>2102901520030</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="13">
+        <v>29</v>
+      </c>
+      <c r="B35" s="14">
+        <v>2102901520031</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="13">
+        <v>30</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2102901520032</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="13">
+        <v>31</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2102901520033</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="13">
+        <v>32</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2102901520034</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="13">
+        <v>33</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2102901520035</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="89.25">
+      <c r="A40" s="13">
+        <v>34</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2102901520036</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="89.25">
+      <c r="A41" s="13">
+        <v>35</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2102901520037</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="102">
+      <c r="A42" s="13">
+        <v>36</v>
+      </c>
+      <c r="B42" s="14">
+        <v>2102901520038</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="114.75">
+      <c r="A43" s="13">
+        <v>37</v>
+      </c>
+      <c r="B43" s="14">
+        <v>2002901520039</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="13">
+        <v>38</v>
+      </c>
+      <c r="B44" s="14">
+        <v>2102901520040</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="13">
+        <v>39</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2102901520042</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="13">
+        <v>40</v>
+      </c>
+      <c r="B46" s="14">
+        <v>2102901520043</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="13">
+        <v>41</v>
+      </c>
+      <c r="B47" s="14">
+        <v>2102901520044</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="13">
+        <v>42</v>
+      </c>
+      <c r="B48" s="14">
+        <v>2102901520045</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="13">
+        <v>43</v>
+      </c>
+      <c r="B49" s="14">
+        <v>2102901520046</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="89.25">
+      <c r="A50" s="13">
+        <v>44</v>
+      </c>
+      <c r="B50" s="14">
+        <v>2102901520047</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="89.25">
+      <c r="A51" s="13">
+        <v>45</v>
+      </c>
+      <c r="B51" s="14">
+        <v>2102901520048</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="102">
+      <c r="A52" s="13">
+        <v>46</v>
+      </c>
+      <c r="B52" s="14">
+        <v>2102901520049</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="114.75">
+      <c r="A53" s="13">
+        <v>47</v>
+      </c>
+      <c r="B53" s="14">
+        <v>2102901520050</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="13">
+        <v>48</v>
+      </c>
+      <c r="B54" s="14">
+        <v>2102901520051</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" s="13">
+        <v>49</v>
+      </c>
+      <c r="B55" s="14">
+        <v>2102901520052</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="13">
+        <v>50</v>
+      </c>
+      <c r="B56" s="14">
+        <v>2102901520053</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="13">
+        <v>51</v>
+      </c>
+      <c r="B57" s="14">
+        <v>2102901520054</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="13">
+        <v>52</v>
+      </c>
+      <c r="B58" s="14">
+        <v>2102901520055</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="13">
+        <v>53</v>
+      </c>
+      <c r="B59" s="14">
+        <v>2102901520056</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="89.25">
+      <c r="A60" s="13">
+        <v>54</v>
+      </c>
+      <c r="B60" s="14">
+        <v>2102901520057</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="89.25">
+      <c r="A61" s="13">
+        <v>55</v>
+      </c>
+      <c r="B61" s="14">
+        <v>2102901520058</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="102">
+      <c r="A62" s="13">
+        <v>56</v>
+      </c>
+      <c r="B62" s="14">
+        <v>2102901520059</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="114.75">
+      <c r="A63" s="13">
+        <v>57</v>
+      </c>
+      <c r="B63" s="14">
+        <v>2102901520060</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="13">
+        <v>58</v>
+      </c>
+      <c r="B64" s="14">
+        <v>2102901520061</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="13">
+        <v>59</v>
+      </c>
+      <c r="B65" s="14">
+        <v>2102901520062</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="37"/>
+      <c r="E65" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="13">
+        <v>60</v>
+      </c>
+      <c r="B66" s="14">
+        <v>2202901529002</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="13">
+        <v>61</v>
+      </c>
+      <c r="B67" s="14">
+        <v>2202901529003</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="13">
+        <v>62</v>
+      </c>
+      <c r="B68" s="14">
+        <v>2202901529006</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="13">
+        <v>63</v>
+      </c>
+      <c r="B69" s="14">
+        <v>2202901529007</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="89.25">
+      <c r="A70" s="13">
+        <v>64</v>
+      </c>
+      <c r="B70" s="14">
+        <v>2202901529008</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="39"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" ht="14.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="21">
+        <v>2</v>
+      </c>
+      <c r="B75" s="22">
+        <v>2102901520002</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="20">
-        <v>2102901520007</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="102">
-      <c r="A12" s="19">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2102901520008</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="114.75">
-      <c r="A13" s="19">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2102901520009</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="19">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2102901520010</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="19">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20">
-        <v>2102901520011</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="19">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20">
-        <v>2102901520012</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="19">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2102901520013</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20">
-        <v>2102901520014</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="19">
-        <v>13</v>
-      </c>
-      <c r="B19" s="20">
-        <v>2102901520015</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="89.25">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
-      <c r="B20" s="20">
-        <v>2102901520016</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="89.25">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
-      <c r="B21" s="20">
-        <v>2102901520017</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="102">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
-      <c r="B22" s="20">
-        <v>2102901520018</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="114.75">
-      <c r="A23" s="19">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20">
-        <v>2102901520019</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="19">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20">
-        <v>2102901520020</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="19">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20">
-        <v>2102901520021</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="19">
-        <v>20</v>
-      </c>
-      <c r="B26" s="20">
-        <v>2102901520022</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="19">
-        <v>21</v>
-      </c>
-      <c r="B27" s="20">
-        <v>2102901520023</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="19">
-        <v>22</v>
-      </c>
-      <c r="B28" s="20">
-        <v>2102901520024</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="31.5">
-      <c r="A29" s="19">
-        <v>23</v>
-      </c>
-      <c r="B29" s="20">
-        <v>2102901520025</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="89.25">
-      <c r="A30" s="19">
-        <v>24</v>
-      </c>
-      <c r="B30" s="20">
-        <v>2102901520026</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="89.25">
-      <c r="A31" s="19">
-        <v>25</v>
-      </c>
-      <c r="B31" s="20">
-        <v>2102901520027</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="102">
-      <c r="A32" s="19">
-        <v>26</v>
-      </c>
-      <c r="B32" s="20">
-        <v>2102901520028</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="114.75">
-      <c r="A33" s="19">
-        <v>27</v>
-      </c>
-      <c r="B33" s="20">
-        <v>2102901520029</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="19">
-        <v>28</v>
-      </c>
-      <c r="B34" s="20">
-        <v>2102901520030</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="19">
-        <v>29</v>
-      </c>
-      <c r="B35" s="20">
-        <v>2102901520031</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="19">
-        <v>30</v>
-      </c>
-      <c r="B36" s="20">
-        <v>2102901520032</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="B76" s="27">
+        <v>2102901520005</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="21">
         <v>39</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="19">
-        <v>31</v>
-      </c>
-      <c r="B37" s="20">
-        <v>2102901520033</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="19">
-        <v>32</v>
-      </c>
-      <c r="B38" s="20">
-        <v>2102901520034</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="B77" s="22">
+        <v>2102901520039</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="21">
         <v>41</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="19">
-        <v>33</v>
-      </c>
-      <c r="B39" s="20">
-        <v>2102901520035</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="89.25">
-      <c r="A40" s="19">
-        <v>34</v>
-      </c>
-      <c r="B40" s="20">
-        <v>2102901520036</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="89.25">
-      <c r="A41" s="19">
-        <v>35</v>
-      </c>
-      <c r="B41" s="20">
-        <v>2102901520037</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="102">
-      <c r="A42" s="19">
-        <v>36</v>
-      </c>
-      <c r="B42" s="20">
-        <v>2102901520038</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="114.75">
-      <c r="A43" s="19">
-        <v>37</v>
-      </c>
-      <c r="B43" s="20">
-        <v>2002901520039</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="19">
-        <v>38</v>
-      </c>
-      <c r="B44" s="20">
-        <v>2102901520040</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="19">
-        <v>39</v>
-      </c>
-      <c r="B45" s="20">
-        <v>2102901520042</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75">
-      <c r="A46" s="19">
-        <v>40</v>
-      </c>
-      <c r="B46" s="20">
-        <v>2102901520043</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="19">
-        <v>41</v>
-      </c>
-      <c r="B47" s="20">
-        <v>2102901520044</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.5">
-      <c r="A48" s="19">
-        <v>42</v>
-      </c>
-      <c r="B48" s="20">
-        <v>2102901520045</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="19">
-        <v>43</v>
-      </c>
-      <c r="B49" s="20">
-        <v>2102901520046</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="89.25">
-      <c r="A50" s="19">
-        <v>44</v>
-      </c>
-      <c r="B50" s="20">
-        <v>2102901520047</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="89.25">
-      <c r="A51" s="19">
-        <v>45</v>
-      </c>
-      <c r="B51" s="20">
-        <v>2102901520048</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="102">
-      <c r="A52" s="19">
-        <v>46</v>
-      </c>
-      <c r="B52" s="20">
-        <v>2102901520049</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="114.75">
-      <c r="A53" s="19">
-        <v>47</v>
-      </c>
-      <c r="B53" s="20">
-        <v>2102901520050</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="19">
-        <v>48</v>
-      </c>
-      <c r="B54" s="20">
-        <v>2102901520051</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75">
-      <c r="A55" s="19">
-        <v>49</v>
-      </c>
-      <c r="B55" s="20">
-        <v>2102901520052</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="19">
-        <v>50</v>
-      </c>
-      <c r="B56" s="20">
-        <v>2102901520053</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="31.5">
-      <c r="A57" s="19">
-        <v>51</v>
-      </c>
-      <c r="B57" s="20">
-        <v>2102901520054</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" s="19">
-        <v>52</v>
-      </c>
-      <c r="B58" s="20">
-        <v>2102901520055</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="19">
-        <v>53</v>
-      </c>
-      <c r="B59" s="20">
-        <v>2102901520056</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="89.25">
-      <c r="A60" s="19">
-        <v>54</v>
-      </c>
-      <c r="B60" s="20">
-        <v>2102901520057</v>
-      </c>
-      <c r="C60" s="21" t="s">
+      <c r="B78" s="22">
+        <v>2102901520041</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="26">
         <v>63</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="89.25">
-      <c r="A61" s="19">
-        <v>55</v>
-      </c>
-      <c r="B61" s="20">
-        <v>2102901520058</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="102">
-      <c r="A62" s="19">
-        <v>56</v>
-      </c>
-      <c r="B62" s="20">
-        <v>2102901520059</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="114.75">
-      <c r="A63" s="19">
-        <v>57</v>
-      </c>
-      <c r="B63" s="20">
-        <v>2102901520060</v>
-      </c>
-      <c r="C63" s="21" t="s">
+      <c r="B79" s="27">
+        <v>2202901529001</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="31">
         <v>66</v>
       </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="19">
-        <v>58</v>
-      </c>
-      <c r="B64" s="20">
-        <v>2102901520061</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="19">
-        <v>59</v>
-      </c>
-      <c r="B65" s="20">
-        <v>2102901520062</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="19">
-        <v>60</v>
-      </c>
-      <c r="B66" s="20">
-        <v>2202901529002</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="19">
-        <v>61</v>
-      </c>
-      <c r="B67" s="20">
-        <v>2202901529003</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="19">
-        <v>62</v>
-      </c>
-      <c r="B68" s="20">
-        <v>2202901529006</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="19">
-        <v>63</v>
-      </c>
-      <c r="B69" s="20">
-        <v>2202901529007</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="89.25">
-      <c r="A70" s="19">
-        <v>64</v>
-      </c>
-      <c r="B70" s="20">
-        <v>2202901529008</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="45"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-    </row>
-    <row r="73" spans="1:5" ht="14.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-    </row>
-    <row r="74" spans="1:5" ht="14.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75">
-      <c r="A75" s="27">
-        <v>2</v>
-      </c>
-      <c r="B75" s="28">
-        <v>2102901520002</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75">
-      <c r="A76" s="32">
-        <v>5</v>
-      </c>
-      <c r="B76" s="33">
-        <v>2102901520005</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="36"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75">
-      <c r="A77" s="27">
-        <v>39</v>
-      </c>
-      <c r="B77" s="28">
-        <v>2102901520039</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="27">
-        <v>41</v>
-      </c>
-      <c r="B78" s="28">
-        <v>2102901520041</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75">
-      <c r="A79" s="32">
-        <v>63</v>
-      </c>
-      <c r="B79" s="33">
-        <v>2202901529001</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="36"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="37">
-        <v>66</v>
-      </c>
-      <c r="B80" s="38">
+      <c r="B80" s="32">
         <v>2202901529004</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:E80">
@@ -2389,1135 +2400,1135 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="94" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="4"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="94" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="38" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="14">
         <v>2102901520063</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="14">
         <v>2102901520064</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="19">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="14">
         <v>2102901520065</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="46" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="102">
-      <c r="A10" s="19">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="14">
         <v>2102901520066</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="46" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="102">
-      <c r="A11" s="19">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="14">
         <v>2102901520067</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="102">
-      <c r="A12" s="19">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="14">
         <v>2102901520068</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="46" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="114.75">
-      <c r="A13" s="19">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="14">
         <v>2102901520069</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="46" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>8</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="14">
         <v>2102901520070</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="19">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="14">
         <v>2102901520071</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="46" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="19">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>2102901520073</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="46" t="s">
+      <c r="D16" s="51"/>
+      <c r="E16" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.5">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>11</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>2102901520074</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="46" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="19">
+      <c r="A18" s="13">
         <v>12</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>2102901520075</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="19">
+      <c r="A19" s="13">
         <v>13</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>2102901520076</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="46" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="102">
-      <c r="A20" s="19">
+      <c r="A20" s="13">
         <v>14</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="14">
         <v>2102901520077</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="46" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="102">
-      <c r="A21" s="19">
+      <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="14">
         <v>2102901520078</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="46" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="102">
-      <c r="A22" s="19">
+      <c r="A22" s="13">
         <v>16</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="14">
         <v>2102901520079</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="46" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="114.75">
-      <c r="A23" s="19">
+      <c r="A23" s="13">
         <v>17</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="14">
         <v>2102901520080</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="46" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="19">
+      <c r="A24" s="13">
         <v>18</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="14">
         <v>2102901520081</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="46" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="19">
+      <c r="A25" s="13">
         <v>19</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="14">
         <v>2102901520082</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="46" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="19">
+      <c r="A26" s="13">
         <v>20</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="14">
         <v>2102901520083</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="46" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.5">
-      <c r="A27" s="19">
+      <c r="A27" s="13">
         <v>21</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="14">
         <v>2102901520084</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="19">
+      <c r="A28" s="13">
         <v>22</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="14">
         <v>2102901520085</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="46" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="19">
+      <c r="A29" s="13">
         <v>23</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="14">
         <v>2102901520086</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="46" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="102">
-      <c r="A30" s="19">
+      <c r="A30" s="13">
         <v>24</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="14">
         <v>2102901520087</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="46" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="102">
-      <c r="A31" s="19">
+      <c r="A31" s="13">
         <v>25</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="14">
         <v>2102901520088</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="46" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="102">
-      <c r="A32" s="19">
+      <c r="A32" s="13">
         <v>26</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="14">
         <v>2102901520089</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="46" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="114.75">
-      <c r="A33" s="19">
+      <c r="A33" s="13">
         <v>27</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="14">
         <v>2102901520090</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="46" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="19">
+      <c r="A34" s="13">
         <v>28</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="14">
         <v>2102901520091</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="46" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75">
-      <c r="A35" s="19">
+      <c r="A35" s="13">
         <v>29</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="14">
         <v>2102901520092</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="46" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75">
-      <c r="A36" s="19">
+      <c r="A36" s="13">
         <v>30</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="14">
         <v>2102901520093</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="46" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75">
-      <c r="A37" s="19">
+      <c r="A37" s="13">
         <v>31</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="14">
         <v>2102901520094</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="46" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="19">
+      <c r="A38" s="13">
         <v>32</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="14">
         <v>2102901520095</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="46" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75">
-      <c r="A39" s="19">
+      <c r="A39" s="13">
         <v>33</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="14">
         <v>2102901520097</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="46" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="102">
-      <c r="A40" s="19">
+      <c r="A40" s="13">
         <v>34</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="14">
         <v>2102901520098</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="46" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="102">
-      <c r="A41" s="19">
+      <c r="A41" s="13">
         <v>35</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="14">
         <v>2102901520099</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="46" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="102">
-      <c r="A42" s="19">
+      <c r="A42" s="13">
         <v>36</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="14">
         <v>2102901520100</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="46" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="114.75">
-      <c r="A43" s="19">
+      <c r="A43" s="13">
         <v>37</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="14">
         <v>2102901520101</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="46" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75">
-      <c r="A44" s="19">
+      <c r="A44" s="13">
         <v>38</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="14">
         <v>2102901520102</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="46" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75">
-      <c r="A45" s="19">
+      <c r="A45" s="13">
         <v>39</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="14">
         <v>2102901520103</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="46" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="31.5">
-      <c r="A46" s="19">
+      <c r="A46" s="13">
         <v>40</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="14">
         <v>2102901520104</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="46" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75">
-      <c r="A47" s="19">
+      <c r="A47" s="13">
         <v>41</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="14">
         <v>2102901520105</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="46" t="s">
+      <c r="D47" s="51"/>
+      <c r="E47" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="31.5">
-      <c r="A48" s="19">
+      <c r="A48" s="13">
         <v>42</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="14">
         <v>2102901520106</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="46" t="s">
+      <c r="D48" s="51"/>
+      <c r="E48" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75">
-      <c r="A49" s="19">
+      <c r="A49" s="13">
         <v>43</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="14">
         <v>2102901520107</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="46" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="102">
-      <c r="A50" s="19">
+      <c r="A50" s="13">
         <v>44</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="14">
         <v>2102901520108</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="46" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="102">
-      <c r="A51" s="19">
+      <c r="A51" s="13">
         <v>45</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="14">
         <v>2102901520109</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="46" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="102">
-      <c r="A52" s="19">
+      <c r="A52" s="13">
         <v>46</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="14">
         <v>2102901520110</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="46" t="s">
+      <c r="D52" s="51"/>
+      <c r="E52" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="114.75">
-      <c r="A53" s="19">
+      <c r="A53" s="13">
         <v>47</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="14">
         <v>2102901520111</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="46" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75">
-      <c r="A54" s="19">
+      <c r="A54" s="13">
         <v>48</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="14">
         <v>2102901520112</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="46" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.5">
-      <c r="A55" s="19">
+      <c r="A55" s="13">
         <v>49</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="14">
         <v>2102901520113</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="46" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75">
-      <c r="A56" s="19">
+      <c r="A56" s="13">
         <v>50</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="14">
         <v>2102901520114</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="46" t="s">
+      <c r="D56" s="51"/>
+      <c r="E56" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75">
-      <c r="A57" s="19">
+      <c r="A57" s="13">
         <v>51</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="14">
         <v>2102901520115</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="46" t="s">
+      <c r="D57" s="51"/>
+      <c r="E57" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75">
-      <c r="A58" s="19">
+      <c r="A58" s="13">
         <v>52</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="14">
         <v>2102901520116</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="57"/>
-      <c r="E58" s="46" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75">
-      <c r="A59" s="19">
+      <c r="A59" s="13">
         <v>53</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="14">
         <v>2102901520117</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="46" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="102">
-      <c r="A60" s="19">
+      <c r="A60" s="13">
         <v>54</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="14">
         <v>2102901520118</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="46" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="102">
-      <c r="A61" s="19">
+      <c r="A61" s="13">
         <v>55</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="14">
         <v>2102901520119</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="46" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="102">
-      <c r="A62" s="19">
+      <c r="A62" s="13">
         <v>56</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="14">
         <v>2102901520120</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="46" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="114.75">
-      <c r="A63" s="19">
+      <c r="A63" s="13">
         <v>57</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="14">
         <v>2102901520121</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="46" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="40" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75">
-      <c r="A64" s="19">
+      <c r="A64" s="13">
         <v>58</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="14">
         <v>2102901520122</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="46" t="s">
+      <c r="D64" s="51"/>
+      <c r="E64" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75">
-      <c r="A65" s="19">
+      <c r="A65" s="13">
         <v>59</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="14">
         <v>2102901520123</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="46" t="s">
+      <c r="D65" s="51"/>
+      <c r="E65" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75">
-      <c r="A66" s="19">
+      <c r="A66" s="13">
         <v>60</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="14">
         <v>2102901520124</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="46" t="s">
+      <c r="D66" s="51"/>
+      <c r="E66" s="40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75">
-      <c r="A67" s="19">
+      <c r="A67" s="13">
         <v>61</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="14">
         <v>2202901529005</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="46" t="s">
+      <c r="D67" s="51"/>
+      <c r="E67" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75">
-      <c r="A68" s="19">
+      <c r="A68" s="13">
         <v>62</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="14">
         <v>2202901529009</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="57"/>
-      <c r="E68" s="46" t="s">
+      <c r="D68" s="51"/>
+      <c r="E68" s="40" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75">
-      <c r="A69" s="19">
+      <c r="A69" s="13">
         <v>63</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="14">
         <v>2202901529010</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="57"/>
-      <c r="E69" s="46" t="s">
+      <c r="D69" s="51"/>
+      <c r="E69" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="102">
-      <c r="A70" s="19">
+      <c r="A70" s="13">
         <v>64</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="14">
         <v>2202901529011</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="46" t="s">
+      <c r="D70" s="52"/>
+      <c r="E70" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="61"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="55"/>
     </row>
     <row r="72" spans="1:5" ht="14.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="61"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="61"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="55"/>
     </row>
     <row r="74" spans="1:5" ht="14.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="61"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="55"/>
     </row>
     <row r="75" spans="1:5" ht="102">
-      <c r="A75" s="62">
+      <c r="A75" s="56">
         <v>65</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="14">
         <v>2002901520039</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="46" t="s">
+      <c r="D75" s="53"/>
+      <c r="E75" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="102">
-      <c r="A76" s="62">
+      <c r="A76" s="56">
         <v>66</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="14">
         <v>2002901520081</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="46" t="s">
+      <c r="D76" s="54"/>
+      <c r="E76" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75">
-      <c r="A78" s="37">
+      <c r="A78" s="31">
         <v>10</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="45">
         <v>2102901520072</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="35"/>
     </row>
     <row r="79" spans="1:5" ht="31.5">
-      <c r="A79" s="52">
+      <c r="A79" s="46">
         <v>34</v>
       </c>
-      <c r="B79" s="53">
+      <c r="B79" s="47">
         <v>2102901520096</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
     </row>
     <row r="80" spans="1:5" ht="15.75">
-      <c r="A80" s="52">
+      <c r="A80" s="46">
         <v>67</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="47">
         <v>2002901520078</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:E80">
